--- a/DateBase/orders/Nha Thu_2025-10-13.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-13.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>191_朱小姐_Miss Piggy_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0510971010101270</v>
+        <v>0510971010101278</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-13.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,92 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>3</v>
+      </c>
+      <c r="C12" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>4</v>
+      </c>
+      <c r="C16" t="str">
+        <v>217_琉璃翠_Dynamic_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>247_苏芬_Sofine_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>246_多头蓝莓_Blueberry Spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +670,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0510971010101278</v>
+        <v>051097101010127827510101283550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-13.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-13.xlsx
@@ -609,6 +609,9 @@
       <c r="C21" t="str">
         <v>246_多头蓝莓_Blueberry Spray_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -670,7 +673,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>051097101010127827510101283550</v>
+        <v>051097101010127827510101283555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-13.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -613,9 +613,92 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>5</v>
+      </c>
+      <c r="C22" t="str">
+        <v>217_琉璃翠_Dynamic_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>229_黄蝴蝶_Yellow Butterfly_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>181_月光女神_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>6</v>
+      </c>
+      <c r="C28" t="str">
+        <v>181_月光女神_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>275_长相思_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -673,7 +756,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>051097101010127827510101283555</v>
+        <v>0510971010101278275101012835551055108611080</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-13.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-13.xlsx
@@ -695,6 +695,9 @@
       <c r="C31" t="str">
         <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -756,7 +759,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0510971010101278275101012835551055108611080</v>
+        <v>0510971010101278275101012835551055108611085</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-13.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -699,9 +699,92 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>7</v>
+      </c>
+      <c r="C34" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>8</v>
+      </c>
+      <c r="C37" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -759,7 +842,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0510971010101278275101012835551055108611085</v>
+        <v>051097101010127827510101283555105510861108513131532010101050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-13.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-13.xlsx
@@ -781,6 +781,9 @@
       <c r="C41" t="str">
         <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -842,7 +845,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>051097101010127827510101283555105510861108513131532010101050</v>
+        <v>051097101010127827510101283555105510861108513131532010101055</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-13.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -785,9 +785,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>9</v>
+      </c>
+      <c r="C42" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L43"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -845,7 +864,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>051097101010127827510101283555105510861108513131532010101055</v>
+        <v>0510971010101278275101012835551055108611085131315320101010551410</v>
       </c>
     </row>
   </sheetData>
